--- a/CashFlow/KLAC_cashflow.xlsx
+++ b/CashFlow/KLAC_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>411875000.0</v>
+        <v>1856170000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1367000000.0</v>
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>327625000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>325250000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>26302000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>43047000.0</v>
@@ -634,10 +630,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-90703000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>-33655000.0</v>
@@ -763,25 +757,23 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>-202984000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5390000000.0</v>
+        <v>-180455000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5220000000.0</v>
+        <v>-155717000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3820909000.0</v>
+        <v>-74817000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2523088000.0</v>
+        <v>-5029000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1257195000.0</v>
+        <v>4718000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-8914000.0</v>
@@ -892,10 +884,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>50857000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5218000.0</v>
@@ -1027,10 +1017,10 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5218000.0</v>
+        <v>1023000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>32437000.0</v>
+        <v>1018000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -1224,10 +1214,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>206541000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>186623000.0</v>
@@ -1353,10 +1341,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>2172248000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1968126000.0</v>
@@ -1482,10 +1468,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>-199354000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-198449000.0</v>
@@ -1794,10 +1778,8 @@
           <t>Short Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>3144000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5011000.0</v>
@@ -1923,10 +1905,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-304868000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-129194000.0</v>
@@ -2255,10 +2235,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-512621000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-334245000.0</v>
@@ -2384,10 +2362,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-4829000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>36142000.0</v>
@@ -2553,10 +2529,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-562125000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-604007000.0</v>
@@ -2684,10 +2658,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-552848000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-546837000.0</v>
@@ -2813,10 +2785,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>41710000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>347933000.0</v>
@@ -2942,10 +2912,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>-1166391000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-1159575000.0</v>
@@ -3071,10 +3039,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>12739000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>17296000.0</v>
@@ -3200,10 +3166,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>505975000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>491602000.0</v>
@@ -3329,10 +3293,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>1234409000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1234409000.0</v>
@@ -3458,10 +3420,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>1740384000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1726011000.0</v>
@@ -3587,10 +3547,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>110524000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>111467000.0</v>
@@ -3717,7 +3675,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-132762000.0</v>
+        <v>-552848000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-546837000.0</v>
@@ -3843,10 +3801,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>-36289000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-751000.0</v>
@@ -3972,10 +3928,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-301724000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-124183000.0</v>
@@ -4101,10 +4055,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-562125000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-604007000.0</v>
